--- a/app/Licenciatura_em_Fisica.xlsx
+++ b/app/Licenciatura_em_Fisica.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -202,9 +202,6 @@
     <t>Lucia Andre Matavele</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -241,9 +238,6 @@
     <t xml:space="preserve">Cristina Faustino Janfar </t>
   </si>
   <si>
-    <t>Cidade de Nacala-Porto</t>
-  </si>
-  <si>
     <t>030101371041M</t>
   </si>
   <si>
@@ -292,9 +286,6 @@
     <t>Lurdes Sumila</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110400158012Q</t>
   </si>
   <si>
@@ -343,9 +334,6 @@
     <t>Rabeca Chimene</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110500560070I</t>
   </si>
   <si>
@@ -439,9 +427,6 @@
     <t>Calorina Victorino Gemusse</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040702834701L</t>
   </si>
   <si>
@@ -466,9 +451,6 @@
     <t>Paulina Joaquim Nhaca</t>
   </si>
   <si>
-    <t>Distrito de Bilene</t>
-  </si>
-  <si>
     <t>090100269546J</t>
   </si>
   <si>
@@ -514,9 +496,6 @@
     <t>Angelina Armando Simbine</t>
   </si>
   <si>
-    <t>Distrito de Inharrime</t>
-  </si>
-  <si>
     <t>Talao de Bilhete de Identificacao</t>
   </si>
   <si>
@@ -541,9 +520,6 @@
     <t>Teresa Gonsalves Menete</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110201649239B</t>
   </si>
   <si>
@@ -586,9 +562,6 @@
     <t>Ana Ricardo Sitoe</t>
   </si>
   <si>
-    <t>Distrito de Massinga</t>
-  </si>
-  <si>
     <t>080901043902B</t>
   </si>
   <si>
@@ -613,9 +586,6 @@
     <t xml:space="preserve">Carlota Zaqueu </t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>080900647965B</t>
   </si>
   <si>
@@ -682,9 +652,6 @@
     <t>Isabel Fernando Chilengue</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110102847606C</t>
   </si>
   <si>
@@ -835,9 +802,6 @@
     <t>Anita Devete Ncombote</t>
   </si>
   <si>
-    <t>Cidade de Chimoio</t>
-  </si>
-  <si>
     <t>060100803185N</t>
   </si>
   <si>
@@ -880,9 +844,6 @@
     <t>Admira RaÚl Muteuie</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110101086751M</t>
   </si>
   <si>
@@ -905,9 +866,6 @@
   </si>
   <si>
     <t>Olga David Come</t>
-  </si>
-  <si>
-    <t>Cidade de Inhambane</t>
   </si>
   <si>
     <t>080102853435B</t>
@@ -2281,7 +2239,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2297,7 +2255,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2313,7 +2271,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2329,7 +2287,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2345,7 +2303,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2360,9 +2318,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2370,7 +2326,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2381,7 +2337,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2390,7 +2346,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2402,7 +2358,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2410,7 +2366,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2506,7 +2462,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2549,7 +2505,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2876,7 +2832,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2892,7 +2848,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2908,7 +2864,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2924,7 +2880,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2940,7 +2896,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2955,9 +2911,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2965,7 +2919,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2976,7 +2930,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2985,7 +2939,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2997,7 +2951,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3005,7 +2959,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3101,7 +3055,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3144,7 +3098,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3471,7 +3425,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3487,7 +3441,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3503,7 +3457,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3519,7 +3473,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3535,7 +3489,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3550,9 +3504,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3560,7 +3512,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3571,7 +3523,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3580,7 +3532,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3592,7 +3544,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3600,7 +3552,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3696,7 +3648,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3739,7 +3691,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4066,7 +4018,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4082,7 +4034,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4098,7 +4050,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4114,7 +4066,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4130,7 +4082,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4145,9 +4097,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4155,7 +4105,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4166,7 +4116,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4175,7 +4125,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4187,7 +4137,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4195,7 +4145,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4291,7 +4241,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4334,7 +4284,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4661,7 +4611,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4677,7 +4627,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4693,7 +4643,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4709,7 +4659,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4725,7 +4675,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4740,9 +4690,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>153</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4750,7 +4698,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4761,7 +4709,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4770,7 +4718,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4782,7 +4730,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4886,7 +4834,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4929,7 +4877,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5256,7 +5204,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5272,7 +5220,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5288,7 +5236,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5304,7 +5252,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5320,7 +5268,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5335,9 +5283,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5345,7 +5291,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5356,7 +5302,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5365,7 +5311,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5377,7 +5323,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5385,7 +5331,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5481,7 +5427,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5524,7 +5470,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5851,7 +5797,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5867,7 +5813,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5883,7 +5829,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5899,7 +5845,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5915,7 +5861,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5930,9 +5876,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5940,7 +5884,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5951,7 +5895,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5960,7 +5904,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5972,7 +5916,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5980,7 +5924,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6076,7 +6020,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6119,7 +6063,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6446,7 +6390,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6462,7 +6406,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6478,7 +6422,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6494,7 +6438,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6510,7 +6454,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6525,9 +6469,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6535,7 +6477,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6546,7 +6488,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6555,7 +6497,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6567,7 +6509,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6575,7 +6517,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6671,7 +6613,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6714,7 +6656,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7041,7 +6983,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7057,7 +6999,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7073,7 +7015,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7089,7 +7031,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7105,7 +7047,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7120,9 +7062,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>186</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7130,7 +7070,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7141,7 +7081,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7150,7 +7090,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7162,7 +7102,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7170,7 +7110,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7266,7 +7206,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7309,7 +7249,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7636,7 +7576,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7652,7 +7592,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7668,7 +7608,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7684,7 +7624,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7700,7 +7640,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7715,9 +7655,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>186</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7725,7 +7663,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7736,7 +7674,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7745,7 +7683,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7757,7 +7695,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7765,7 +7703,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7861,7 +7799,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7904,7 +7842,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8310,9 +8248,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8320,7 +8256,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8331,7 +8267,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8340,7 +8276,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8352,7 +8288,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8360,7 +8296,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8456,7 +8392,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8499,7 +8435,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8826,7 +8762,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8842,7 +8778,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8858,7 +8794,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8874,7 +8810,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8890,7 +8826,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8905,9 +8841,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8915,7 +8849,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8926,7 +8860,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8935,7 +8869,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8947,7 +8881,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9051,7 +8985,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9094,7 +9028,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9421,7 +9355,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9437,7 +9371,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9453,7 +9387,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9469,7 +9403,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9485,7 +9419,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9500,9 +9434,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>209</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9510,7 +9442,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9521,7 +9453,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9530,7 +9462,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9542,7 +9474,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9550,7 +9482,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9646,7 +9578,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9689,7 +9621,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10016,7 +9948,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10032,7 +9964,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10048,7 +9980,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10064,7 +9996,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10080,7 +10012,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10095,9 +10027,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10105,7 +10035,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10116,7 +10046,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10125,7 +10055,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10137,7 +10067,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10145,7 +10075,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10241,7 +10171,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10284,7 +10214,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10611,7 +10541,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10627,7 +10557,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10643,7 +10573,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10659,7 +10589,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10675,7 +10605,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10690,9 +10620,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10700,7 +10628,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10711,7 +10639,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10720,7 +10648,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10732,7 +10660,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10740,7 +10668,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10836,7 +10764,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10879,7 +10807,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11206,7 +11134,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11222,7 +11150,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11238,7 +11166,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11254,7 +11182,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11270,7 +11198,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11285,9 +11213,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11295,7 +11221,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11306,7 +11232,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11315,7 +11241,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11327,7 +11253,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11335,7 +11261,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11431,7 +11357,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11474,7 +11400,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11801,7 +11727,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11817,7 +11743,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11833,7 +11759,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11849,7 +11775,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11865,7 +11791,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11880,9 +11806,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11890,7 +11814,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11901,7 +11825,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11910,7 +11834,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11922,7 +11846,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11930,7 +11854,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12026,7 +11950,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12069,7 +11993,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12396,7 +12320,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12412,7 +12336,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12428,7 +12352,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12444,7 +12368,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12460,7 +12384,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12475,9 +12399,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12485,7 +12407,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12496,7 +12418,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12505,7 +12427,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12517,7 +12439,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12525,7 +12447,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12621,7 +12543,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12664,7 +12586,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12991,7 +12913,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13007,7 +12929,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13023,7 +12945,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13039,7 +12961,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13055,7 +12977,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13070,9 +12992,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13080,7 +13000,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13091,7 +13011,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13100,7 +13020,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13112,7 +13032,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13120,7 +13040,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13216,7 +13136,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13259,7 +13179,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13586,7 +13506,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13602,7 +13522,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13618,7 +13538,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13634,7 +13554,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13650,7 +13570,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13665,9 +13585,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>260</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13675,7 +13593,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13686,7 +13604,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13695,7 +13613,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13707,7 +13625,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13715,7 +13633,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13811,7 +13729,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13854,7 +13772,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14181,7 +14099,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14197,7 +14115,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14213,7 +14131,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14229,7 +14147,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14245,7 +14163,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14260,9 +14178,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14270,7 +14186,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14281,7 +14197,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14290,7 +14206,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14302,7 +14218,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14310,7 +14226,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14406,7 +14322,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14449,7 +14365,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14776,7 +14692,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14792,7 +14708,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14808,7 +14724,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14824,7 +14740,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14840,7 +14756,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14855,9 +14771,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14865,7 +14779,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14876,7 +14790,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14885,7 +14799,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14897,7 +14811,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14905,7 +14819,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15001,7 +14915,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15044,7 +14958,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15371,7 +15285,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15387,7 +15301,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15403,7 +15317,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15419,7 +15333,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15435,7 +15349,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15450,9 +15364,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>275</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15460,7 +15372,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15471,7 +15383,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15480,7 +15392,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15492,7 +15404,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15500,7 +15412,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15596,7 +15508,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15639,7 +15551,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15966,7 +15878,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15982,7 +15894,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15998,7 +15910,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16014,7 +15926,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16030,7 +15942,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16045,9 +15957,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>284</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16055,7 +15965,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16066,7 +15976,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16075,7 +15985,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16087,7 +15997,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16095,7 +16005,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16191,7 +16101,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16234,7 +16144,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16561,7 +16471,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16577,7 +16487,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16593,7 +16503,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16609,7 +16519,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16625,7 +16535,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16640,9 +16550,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16650,7 +16558,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16661,7 +16569,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16670,7 +16578,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16682,7 +16590,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16690,7 +16598,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16786,7 +16694,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16829,7 +16737,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17156,7 +17064,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17172,7 +17080,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17188,7 +17096,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17204,7 +17112,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17220,7 +17128,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17235,9 +17143,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17245,7 +17151,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17256,7 +17162,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17265,7 +17171,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17277,7 +17183,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17285,7 +17191,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17381,7 +17287,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17424,7 +17330,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17751,7 +17657,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17767,7 +17673,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17783,7 +17689,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17799,7 +17705,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17815,7 +17721,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17830,9 +17736,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17840,7 +17744,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17851,7 +17755,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17860,7 +17764,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17872,7 +17776,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17880,7 +17784,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17976,7 +17880,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18019,7 +17923,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18346,7 +18250,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18362,7 +18266,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18378,7 +18282,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18394,7 +18298,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18410,7 +18314,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18425,9 +18329,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18435,7 +18337,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18446,7 +18348,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18455,7 +18357,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18467,7 +18369,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18475,7 +18377,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18571,7 +18473,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18614,7 +18516,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18941,7 +18843,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18957,7 +18859,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18973,7 +18875,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18989,7 +18891,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19005,7 +18907,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19020,9 +18922,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>275</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19030,7 +18930,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19041,7 +18941,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19050,7 +18950,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19062,7 +18962,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19070,7 +18970,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19166,7 +19066,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19209,7 +19109,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19592,7 +19492,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19608,7 +19508,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19624,7 +19524,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19640,7 +19540,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19656,7 +19556,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19671,9 +19571,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19681,7 +19579,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19692,7 +19590,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19701,7 +19599,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19713,7 +19611,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19721,7 +19619,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19817,7 +19715,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19860,7 +19758,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20187,7 +20085,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20203,7 +20101,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20219,7 +20117,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20235,7 +20133,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20251,7 +20149,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20266,9 +20164,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20276,7 +20172,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20287,7 +20183,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20296,7 +20192,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20308,7 +20204,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20316,7 +20212,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20412,7 +20308,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20455,7 +20351,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20782,7 +20678,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20798,7 +20694,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20814,7 +20710,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20830,7 +20726,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20846,7 +20742,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20861,9 +20757,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20871,7 +20765,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20882,7 +20776,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20891,7 +20785,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20903,7 +20797,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20911,7 +20805,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21007,7 +20901,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21050,7 +20944,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21377,7 +21271,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21393,7 +21287,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21409,7 +21303,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21425,7 +21319,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21441,7 +21335,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21456,9 +21350,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21466,7 +21358,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21477,7 +21369,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21486,7 +21378,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21498,7 +21390,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21506,7 +21398,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21602,7 +21494,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21645,7 +21537,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21972,7 +21864,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21988,7 +21880,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22004,7 +21896,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22020,7 +21912,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22036,7 +21928,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22051,9 +21943,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22061,7 +21951,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22072,7 +21962,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22081,7 +21971,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22093,7 +21983,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22101,7 +21991,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22197,7 +22087,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22240,7 +22130,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22567,7 +22457,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22583,7 +22473,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22599,7 +22489,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22615,7 +22505,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22631,7 +22521,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22646,9 +22536,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22656,7 +22544,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22667,7 +22555,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22676,7 +22564,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22688,7 +22576,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22696,7 +22584,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22792,7 +22680,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22835,7 +22723,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
